--- a/Results/Multi_Year/Generator_Data.xlsx
+++ b/Results/Multi_Year/Generator_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Dropbox\MicroGrids\TESI\MGP_Thesis_Version\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EEB638-0E51-46AB-9AB3-48DBC28A1119}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE293DCF-EE06-4268-8B68-076ED9369BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5317" yWindow="3146" windowWidth="15951" windowHeight="8230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Generator 1</t>
   </si>
@@ -41,12 +41,30 @@
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
+    <t>Nominal Capacity at upgrade 2</t>
+  </si>
+  <si>
+    <t>Nominal Capacity at upgrade 3</t>
+  </si>
+  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
+    <t>Investment at upgrade 2</t>
+  </si>
+  <si>
+    <t>Investment at upgrade 3</t>
+  </si>
+  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
   </si>
   <si>
+    <t>Yearly O&amp;M Cost at upgrade 2</t>
+  </si>
+  <si>
+    <t>Yearly O&amp;M Cost at upgrade 3</t>
+  </si>
+  <si>
     <t>Total actualized Fuel Cost</t>
   </si>
   <si>
@@ -60,57 +78,6 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 3</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 4</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 5</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 6</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 7</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 8</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 9</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 10</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 11</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 12</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 13</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 14</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 15</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 16</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 17</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 18</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 19</t>
-  </si>
-  <si>
-    <t>Total Fuel Cost at y = 20</t>
   </si>
 </sst>
 </file>
@@ -176,7 +143,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,14 +479,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>60872.509196319348</v>
+        <v>114040.5301352051</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -572,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>25572.541113373762</v>
+        <v>122757.35133520509</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -580,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2557.2541113373759</v>
+        <v>131474.17253520511</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -588,7 +555,55 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>864207.18582748598</v>
+        <v>47908.426709799664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3661.9365861200022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3661.9365861200022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4790.8426709799669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5157.0363295919669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5523.229988203967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>740292.51719902863</v>
       </c>
     </row>
   </sheetData>
@@ -598,179 +613,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>19261.750872393139</v>
+        <v>220530.57755536071</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>22792.668171724341</v>
+        <v>246612.91507201109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>24400.88135365961</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>26397.080209276672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>28486.648501466141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>30653.531901208189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>32891.318884120767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>35171.294831997562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>37535.467875564398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>39953.024149101882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>42507.177988538919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>45208.580944241643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>48055.342143331844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>51070.304603400429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>54254.308586402309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>57621.780813761128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>61178.815791170637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>64910.922035397598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>68856.928477906855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>72999.357692776859</v>
+        <v>273149.02457167441</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Multi_Year/Generator_Data.xlsx
+++ b/Results/Multi_Year/Generator_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\Desktop\MicroGridsPy_MYCE_SalvageValue\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE293DCF-EE06-4268-8B68-076ED9369BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D0106F-8854-4421-9787-B53163CA518C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Generator 1</t>
   </si>
@@ -41,30 +41,12 @@
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
-    <t>Nominal Capacity at upgrade 2</t>
-  </si>
-  <si>
-    <t>Nominal Capacity at upgrade 3</t>
-  </si>
-  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
-    <t>Investment at upgrade 2</t>
-  </si>
-  <si>
-    <t>Investment at upgrade 3</t>
-  </si>
-  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
   </si>
   <si>
-    <t>Yearly O&amp;M Cost at upgrade 2</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 3</t>
-  </si>
-  <si>
     <t>Total actualized Fuel Cost</t>
   </si>
   <si>
@@ -78,6 +60,12 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
   </si>
 </sst>
 </file>
@@ -479,22 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +490,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +498,7 @@
         <v>9840</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,7 +506,7 @@
         <v>0.42009999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,84 +514,36 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>114040.5301352051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104752.7053983763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>122757.35133520509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44006.611537857898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>131474.17253520511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4400.6611537857898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>47908.426709799664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4790.8426709799669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5157.0363295919669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5523.229988203967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>740292.51719902863</v>
+        <v>737597.48794515361</v>
       </c>
     </row>
   </sheetData>
@@ -613,43 +553,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>220530.57755536071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>147515.0489019602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>246612.91507201109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>147520.60976081199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>273149.02457167441</v>
+        <v>147520.60976081199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>147520.60976081199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>147520.60976081199</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Multi_Year/Generator_Data.xlsx
+++ b/Results/Multi_Year/Generator_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-MYCE\Results\Multi_Year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\MicroGridsPy_MultiYearCapacityExpansion-Multi_Year_Capacity_Expansion\Results\Multi_Year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE293DCF-EE06-4268-8B68-076ED9369BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300FB205-504E-4016-8CEB-590DC877B9B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5317" yWindow="3146" windowWidth="15951" windowHeight="8230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generator Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Generator 1</t>
   </si>
@@ -41,30 +41,12 @@
     <t>Nominal Capacity at upgrade 1</t>
   </si>
   <si>
-    <t>Nominal Capacity at upgrade 2</t>
-  </si>
-  <si>
-    <t>Nominal Capacity at upgrade 3</t>
-  </si>
-  <si>
     <t>Investment at upgrade 1</t>
   </si>
   <si>
-    <t>Investment at upgrade 2</t>
-  </si>
-  <si>
-    <t>Investment at upgrade 3</t>
-  </si>
-  <si>
     <t>Yearly O&amp;M Cost at upgrade 1</t>
   </si>
   <si>
-    <t>Yearly O&amp;M Cost at upgrade 2</t>
-  </si>
-  <si>
-    <t>Yearly O&amp;M Cost at upgrade 3</t>
-  </si>
-  <si>
     <t>Total actualized Fuel Cost</t>
   </si>
   <si>
@@ -78,6 +60,12 @@
   </si>
   <si>
     <t>Total Fuel Cost at y = 3</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 4</t>
+  </si>
+  <si>
+    <t>Total Fuel Cost at y = 5</t>
   </si>
 </sst>
 </file>
@@ -143,7 +131,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,14 +467,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>114040.5301352051</v>
+        <v>144214.78917984059</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>122757.35133520509</v>
+        <v>60584.632934451052</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>131474.17253520511</v>
+        <v>6058.4632934451056</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,55 +543,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>47908.426709799664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3661.9365861200022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4790.8426709799669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5157.0363295919669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>5523.229988203967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>740292.51719902863</v>
+        <v>1130449.8563873509</v>
       </c>
     </row>
   </sheetData>
@@ -613,43 +553,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>220530.57755536071</v>
+        <v>174013.2147760638</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>246612.91507201109</v>
+        <v>198224.2912546304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>273149.02457167441</v>
+        <v>223257.02587713659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>252371.9633319019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>282583.36114769487</v>
       </c>
     </row>
   </sheetData>
